--- a/data/income_statement/2digits/size/15_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/15_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>15-Manufacture of leather and related products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>15-Manufacture of leather and related products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1286986.19844</v>
+        <v>1335540.87326</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1588215.16802</v>
+        <v>1630303.03377</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2213281.55261</v>
+        <v>2206058.002069999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2487192.3221</v>
+        <v>2523231.48658</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2630520.02664</v>
+        <v>2736858.92719</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3357266.78554</v>
+        <v>3465602.01753</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3723971.76887</v>
+        <v>3849074.16942</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4256024.24936</v>
+        <v>4467677.46181</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5523810.87662</v>
+        <v>5710071.659549999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5598310.51108</v>
+        <v>5321360.759819999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6843557.45316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6642238.00477</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6899112.119</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1031420.33296</v>
+        <v>1081724.4633</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1318753.67656</v>
+        <v>1340577.60231</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1842363.85649</v>
+        <v>1825364.11617</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2122018.56566</v>
+        <v>2124451.66614</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2181967.82451</v>
+        <v>2255229.46336</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2797801.58966</v>
+        <v>2875196.30221</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3200227.55435</v>
+        <v>3269114.8418</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3706513.432810001</v>
+        <v>3867626.25441</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4723817.549550001</v>
+        <v>4902726.67604</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4482203.78908</v>
+        <v>4265849.24196</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5482513.44341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5302758.092360001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5497080.937</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>236394.35428</v>
+        <v>234768.36504</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>260656.26118</v>
+        <v>278353.07278</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>347077.79129</v>
+        <v>356103.15564</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>333005.56575</v>
+        <v>367899.77916</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>426870.96998</v>
+        <v>461314.82747</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>531633.56102</v>
+        <v>562641.1349300001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>485491.07102</v>
+        <v>547355.94186</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>501660.2844400001</v>
+        <v>555354.84974</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>731783.5435199999</v>
+        <v>742403.97615</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1056834.86949</v>
+        <v>992979.73724</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1283676.33333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1262935.36451</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1319031.593</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>19171.5112</v>
+        <v>19048.04492</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8805.230280000002</v>
+        <v>11372.35868</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>23839.90483</v>
+        <v>24590.73026</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>32168.19069</v>
+        <v>30880.04128</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>21681.23215</v>
+        <v>20314.63636</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>27831.63486</v>
+        <v>27764.58039</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>38253.1435</v>
+        <v>32603.38576</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>47850.53211</v>
+        <v>44696.35765999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>68209.78354999999</v>
+        <v>64941.00736</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>59271.85251</v>
+        <v>62531.78062000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>77367.67642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>76544.54790000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>82999.58900000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>31031.58733</v>
+        <v>35369.45949</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>38046.96297</v>
+        <v>42290.04379</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>37880.61122</v>
+        <v>36859.24608</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>44157.42481</v>
+        <v>45401.24423999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>45561.14373999999</v>
+        <v>49065.87582</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>63846.14870000001</v>
+        <v>66095.44275</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>77470.38367</v>
+        <v>79381.97583</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>99221.62974999999</v>
+        <v>103872.2885</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>122019.01803</v>
+        <v>127438.30454</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>119771.1738</v>
+        <v>115803.67926</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>181918.64015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>171554.07592</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>157882.731</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>19259.79563</v>
+        <v>22109.12395</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>24568.1491</v>
+        <v>26859.3971</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>31229.27634</v>
+        <v>30215.3889</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>37199.89639</v>
+        <v>37989.6661</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>36651.26381</v>
+        <v>39043.84853</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>55522.04329000001</v>
+        <v>56502.97435</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>56841.71372</v>
+        <v>67686.39975</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>86588.54428999999</v>
+        <v>90197.73922999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>104378.8105</v>
+        <v>107932.80521</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>102224.72638</v>
+        <v>100707.07887</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>159217.76199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>149922.1778</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>137122.91</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>11089.08434</v>
+        <v>12535.18865</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>12872.47524</v>
+        <v>14747.93071</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5766.788869999999</v>
+        <v>5759.268029999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5941.44978</v>
+        <v>6428.37306</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6634.32883</v>
+        <v>7848.22231</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6296.4351</v>
+        <v>7602.082689999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8033.25908</v>
+        <v>8852.2811</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10426.00415</v>
+        <v>11530.66504</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12026.91205</v>
+        <v>13795.75626</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>12360.66878</v>
+        <v>10295.18193</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>15460.01636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14789.00447</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>16133.961</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>682.70736</v>
+        <v>725.14689</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>606.33863</v>
+        <v>682.7159799999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>884.54601</v>
+        <v>884.5891499999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1016.07864</v>
+        <v>983.2050800000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2275.5511</v>
+        <v>2173.80498</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2027.67031</v>
+        <v>1990.38571</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12595.41087</v>
+        <v>2843.29498</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2207.08131</v>
+        <v>2143.88423</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5613.295480000001</v>
+        <v>5709.74307</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5185.77864</v>
+        <v>4801.41846</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7240.8618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6842.89365</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4625.86</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1255954.61111</v>
+        <v>1300171.41377</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1550168.20505</v>
+        <v>1588012.98998</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2175400.94139</v>
+        <v>2169198.75599</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2443034.89729</v>
+        <v>2477830.24234</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2584958.8829</v>
+        <v>2687793.05137</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3293420.63684</v>
+        <v>3399506.57478</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3646501.3852</v>
+        <v>3769692.19359</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4156802.61961</v>
+        <v>4363805.17331</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5401791.85859</v>
+        <v>5582633.35501</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5478539.33728</v>
+        <v>5205557.08056</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6661638.813010001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6470683.928850001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6741229.388</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1084823.37552</v>
+        <v>1112829.27203</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1346317.44388</v>
+        <v>1387001.07098</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1897760.95748</v>
+        <v>1896378.15476</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2166321.84866</v>
+        <v>2198605.20028</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2275191.25216</v>
+        <v>2356890.0729</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2910203.40848</v>
+        <v>2992430.46158</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3180651.95301</v>
+        <v>3274167.16576</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3639621.74093</v>
+        <v>3808174.53928</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4766415.66757</v>
+        <v>4919963.30563</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4768031.26334</v>
+        <v>4519701.189479999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5768721.160270001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5617687.808639999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5779695.536</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>907927.38193</v>
+        <v>943822.05878</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1102856.14883</v>
+        <v>1148794.38382</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1518633.12063</v>
+        <v>1519330.56654</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1839257.82753</v>
+        <v>1844594.97258</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1943793.53056</v>
+        <v>2039750.6018</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2515022.96951</v>
+        <v>2578634.47383</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2672004.00383</v>
+        <v>2780025.60328</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3031243.05859</v>
+        <v>3201041.079729999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3980712.28135</v>
+        <v>4107874.41098</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4080792.59433</v>
+        <v>3911026.83182</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4924213.78784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4835418.51939</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4939983.676</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>157607.12609</v>
+        <v>148313.93839</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>224766.25731</v>
+        <v>218545.7997</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>342323.82741</v>
+        <v>339799.9910800001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>287347.5212200001</v>
+        <v>313951.42685</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>293433.04581</v>
+        <v>281911.60746</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>356347.49204</v>
+        <v>358221.8378</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>465691.55994</v>
+        <v>452437.76244</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>552593.05949</v>
+        <v>557671.38846</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>692228.9330799999</v>
+        <v>707275.34513</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>590378.9715799999</v>
+        <v>515692.95066</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>722448.5190399999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>662569.30291</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>707445.526</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>17108.46104</v>
+        <v>16787.8359</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>16772.60473</v>
+        <v>17887.47667</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>33417.9524</v>
+        <v>34320.50535</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>35690.9115</v>
+        <v>35843.86404</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>31965.55681</v>
+        <v>29089.43167</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>31262.43401</v>
+        <v>39055.39921</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>37013.95863</v>
+        <v>36975.10345</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>44372.80914</v>
+        <v>40575.15624</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>83707.86358</v>
+        <v>89956.89767000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>85427.68441</v>
+        <v>82384.91837</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>105962.34937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>104707.43235</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>121639.073</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2180.40646</v>
+        <v>3905.43896</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1922.43301</v>
+        <v>1773.41079</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3386.05704</v>
+        <v>2927.09179</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4025.58841</v>
+        <v>4214.93681</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5999.118979999999</v>
+        <v>6138.431970000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7570.51292</v>
+        <v>16518.75074</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5942.430609999999</v>
+        <v>4728.69659</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11412.81371</v>
+        <v>8886.914850000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>9766.589559999999</v>
+        <v>14856.65185</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11432.01302</v>
+        <v>10596.48863</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>16096.50402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14992.55399</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>10627.261</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>171131.23559</v>
+        <v>187342.14174</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>203850.76117</v>
+        <v>201011.919</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>277639.98391</v>
+        <v>272820.60123</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>276713.04863</v>
+        <v>279225.04206</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>309767.63074</v>
+        <v>330902.97847</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>383217.22836</v>
+        <v>407076.1132</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>465849.43219</v>
+        <v>495525.02783</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>517180.8786800001</v>
+        <v>555630.63403</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>635376.19102</v>
+        <v>662670.04938</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>710508.07394</v>
+        <v>685855.89108</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>892917.65274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>852996.1202100001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>961533.852</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>100435.56223</v>
+        <v>106137.71194</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>120638.31441</v>
+        <v>120147.19069</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>151078.24926</v>
+        <v>149780.94848</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>158854.95973</v>
+        <v>158313.06605</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>182877.26658</v>
+        <v>186959.25375</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>223971.36364</v>
+        <v>230959.34606</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>251369.56634</v>
+        <v>265264.81069</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>274470.89425</v>
+        <v>290793.31111</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>342849.2507100001</v>
+        <v>346775.28019</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>341429.91314</v>
+        <v>322163.64878</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>458811.55038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>440475.40606</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>492590.052</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>260.90254</v>
+        <v>274.66749</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1529.91863</v>
+        <v>1521.22568</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>0.06481000000000001</v>
@@ -1586,10 +1572,10 @@
         <v>79.76796</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>349.9565899999999</v>
+        <v>334.70442</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>105.3622</v>
+        <v>277.67618</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>112.92459</v>
@@ -1598,220 +1584,250 @@
         <v>445.96162</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1566.31966</v>
+        <v>484.13994</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1475.12759</v>
+        <v>833.39023</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1183.17957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1163.00927</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1709.801</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>41685.90294</v>
+        <v>45595.33427</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>50120.12781000001</v>
+        <v>51219.41632</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>55625.43622</v>
+        <v>56689.48054</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>57588.66386</v>
+        <v>57984.48457</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>67414.60096000001</v>
+        <v>68679.46825000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>82985.82234999999</v>
+        <v>84791.91679999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>86172.89332999999</v>
+        <v>92745.21825000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>92135.00478</v>
+        <v>107615.32203</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>124295.96665</v>
+        <v>131900.22006</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>127522.36075</v>
+        <v>123451.38465</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>171602.6172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>168771.52681</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>224813.839</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>58488.75675</v>
+        <v>60267.71018</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>68988.26797</v>
+        <v>67406.54869</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>95452.74823</v>
+        <v>93091.40312999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>101186.52791</v>
+        <v>100248.81352</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>115112.70903</v>
+        <v>117945.08108</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>140880.17909</v>
+        <v>145889.75308</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>165083.74842</v>
+        <v>172406.66785</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>181889.92785</v>
+        <v>182732.02746</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>216986.9644</v>
+        <v>214390.92019</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>212432.4248</v>
+        <v>197878.8739</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>286025.75361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>270540.86998</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>266066.412</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>70695.67336</v>
+        <v>81204.4298</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>83212.44676000001</v>
+        <v>80864.72831000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>126561.73465</v>
+        <v>123039.65275</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>117858.0889</v>
+        <v>120911.97601</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>126890.36416</v>
+        <v>143943.72472</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>159245.86472</v>
+        <v>176116.76714</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>214479.86585</v>
+        <v>230260.21714</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>242709.98443</v>
+        <v>264837.32292</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>292526.94031</v>
+        <v>315894.76919</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>369078.1608</v>
+        <v>363692.2422999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>434106.10236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>412520.71415</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>468943.8</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>52020.16574</v>
+        <v>48834.33118</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>46326.27251</v>
+        <v>52600.07736</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>55065.43628</v>
+        <v>60047.99186</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>35570.79222</v>
+        <v>42026.44027</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>89026.03134</v>
+        <v>113398.14643</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>97428.00984</v>
+        <v>130606.66661</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>169013.15591</v>
+        <v>231420.99186</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>122129.7999</v>
+        <v>154288.54735</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>142088.68633</v>
+        <v>182485.96236</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>528295.4514299999</v>
+        <v>426940.1390800001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>286842.84414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>260221.99174</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>450306.26</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1417.7184</v>
+        <v>1144.11548</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1194.45297</v>
+        <v>586.26403</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1981.61312</v>
+        <v>1793.31654</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>680.8926899999999</v>
+        <v>618.58062</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>377.29379</v>
+        <v>397.1375</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1391.81516</v>
+        <v>1734.01224</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1325.9253</v>
+        <v>1676.93846</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1548.92786</v>
+        <v>2423.16842</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>633.7225100000001</v>
+        <v>3112.1258</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2824.90929</v>
+        <v>2412.21942</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3227.25709</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2874.94219</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2590.278</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>72.95766</v>
+        <v>36.44784</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0.54223</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>54.01309</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>0.01592</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,53 +1856,63 @@
       <c r="M27" s="48" t="n">
         <v>145.43494</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3209.04327</v>
+        <v>2614.722400000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3005.62735</v>
+        <v>2521.70795</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2671.97044</v>
+        <v>2555.24354</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4463.06758</v>
+        <v>4825.2734</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4765.12825</v>
+        <v>6305.936299999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6033.95478</v>
+        <v>10312.04867</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7915.36892</v>
+        <v>13527.04393</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7318.32778</v>
+        <v>10173.92376</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>10615.49617</v>
+        <v>9622.91768</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>31668.17076</v>
+        <v>28699.09732</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>28220.56115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>39614.38787999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>29181.504</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>21.7411</v>
+        <v>21.62309</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>507.51965</v>
@@ -1895,85 +1921,95 @@
         <v>7.077850000000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1.22924</v>
+        <v>178.50278</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>46.96472</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>95.75825</v>
+        <v>8.570539999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2134.53078</v>
+        <v>2156.02887</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>21.38681</v>
+        <v>20.817</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>284.04896</v>
+        <v>271.13386</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>765.23477</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>55.89654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>52.27958</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>13.493</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>182.67184</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>436.10208</v>
+        <v>1019.39545</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>399.499</v>
+        <v>407.499</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>534.1404299999999</v>
+        <v>516.6075499999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>908.54128</v>
+        <v>1345.98884</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1468.64821</v>
+        <v>1790.30672</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5504.928910000001</v>
+        <v>5898.91017</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2734.97247</v>
+        <v>3406.1292</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3090.93864</v>
+        <v>3131.63864</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1114.5733</v>
+        <v>982.70216</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>629.08528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>632.11404</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1267.296</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>167.30743</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.65547</v>
+        <v>0.62251</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>110.07764</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>26.87704</v>
+        <v>13.89629</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>72.28646999999999</v>
@@ -1982,64 +2018,74 @@
         <v>295.90691</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>79.71661</v>
+        <v>68.00463999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>343.42825</v>
+        <v>659.19839</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1387.86926</v>
+        <v>1211.25914</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>404.60722</v>
+        <v>136.66899</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>879.57638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>702.75437</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>72641.743</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>38980.90673</v>
+        <v>36470.37421</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>33797.49777</v>
+        <v>40817.03969000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>43842.29470000001</v>
+        <v>49697.62519999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>23634.7229</v>
+        <v>28596.45227</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>68186.47021000001</v>
+        <v>91161.70761</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>71016.45054000001</v>
+        <v>95917.83409</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>133266.81658</v>
+        <v>178854.72626</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>85805.52426999999</v>
+        <v>103663.5164</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>95541.06947</v>
+        <v>122735.32321</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>436095.9811</v>
+        <v>347543.73496</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>194482.6098</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>163404.18015</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>302318.818</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>29.56848</v>
@@ -2048,7 +2094,7 @@
         <v>19.77974</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>225.02642</v>
+        <v>120.99754</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>11.37106</v>
@@ -2057,28 +2103,33 @@
         <v>1828.42162</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>5196.72604</v>
+        <v>5086.22707</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>6835.455800000001</v>
+        <v>9690.0044</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>4792.90355</v>
+        <v>14487.91564</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>5471.50225</v>
+        <v>16102.89885</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>22425.03381</v>
+        <v>20146.56194</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>25309.96096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>23590.5495</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9611.937</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>15.22234</v>
@@ -2102,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1229.37734</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>996.52201</v>
+        <v>14.37536</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>49.4564</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7923.028490000001</v>
+        <v>8152.27807</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7306.367679999999</v>
+        <v>7070.020769999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5825.27867</v>
+        <v>5353.55611</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6218.49128</v>
+        <v>7265.7563</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>12813.87472</v>
+        <v>12212.65309</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>11928.74995</v>
+        <v>15407.74728</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>11950.41301</v>
+        <v>19549.33513</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18334.95157</v>
+        <v>19453.87854</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>24067.51706</v>
+        <v>26284.2739</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>32947.48478</v>
+        <v>26204.46312</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>33892.462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>29205.34909</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>32681.191</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>44847.42498999999</v>
+        <v>42252.23403</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>34010.87256</v>
+        <v>39625.99726999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>51198.99715</v>
+        <v>53789.96483</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>29326.8843</v>
+        <v>33305.39479999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>90579.82399999999</v>
+        <v>111902.91758</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>104642.39611</v>
+        <v>129911.63566</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>185596.78877</v>
+        <v>240457.27582</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>116922.92648</v>
+        <v>150254.26601</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>133576.09165</v>
+        <v>167479.82578</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>509243.26358</v>
+        <v>470814.78392</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>257827.26847</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>234851.53403</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>364111.65</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>481.20105</v>
+        <v>479.53838</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>437.44411</v>
+        <v>291.03261</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>618.03116</v>
+        <v>604.6135400000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>775.76911</v>
+        <v>701.52599</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1176.62761</v>
+        <v>1153.9855</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3113.10557</v>
+        <v>3167.67729</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1452.28185</v>
+        <v>1645.46369</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>692.27511</v>
+        <v>1302.78511</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1129.96186</v>
+        <v>2758.84966</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2129.02663</v>
+        <v>1464.2904</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1825.31656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1922.26679</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2330.225</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3815.0279</v>
+        <v>4096.96568</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2413.63077</v>
+        <v>3139.57698</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1855.48143</v>
+        <v>1898.78541</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3113.46192</v>
+        <v>2983.27506</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3246.93906</v>
+        <v>3692.09386</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>19242.99782</v>
+        <v>19937.24389</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>14275.43914</v>
+        <v>16869.01924</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11668.8062</v>
+        <v>13847.50603</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7949.01439</v>
+        <v>9104.56955</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>37065.86816</v>
+        <v>26515.43374</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>39997.01673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>30595.90164</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>12304.295</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>7.33465</v>
@@ -2282,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>15.64003</v>
+        <v>16.22288</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>12.35352</v>
@@ -2291,16 +2367,16 @@
         <v>5.4725</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>11.98339</v>
+        <v>58.94603</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>416.60458</v>
+        <v>416.79587</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>41.08503</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>20.38464</v>
+        <v>857.34477</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0.008659999999999999</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>609.1950800000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>68547.894</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>38572.63581</v>
+        <v>35544.8648</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>28267.50161</v>
+        <v>33943.01009</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>46064.12145</v>
+        <v>49112.12593</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>23656.09999</v>
+        <v>27052.12275</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>77063.65155000001</v>
+        <v>98027.62081000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>70812.22146</v>
+        <v>95682.27915999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>155128.16078</v>
+        <v>200915.50607</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>94081.33568</v>
+        <v>114822.76267</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>114777.34782</v>
+        <v>133742.41081</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>436685.4159199999</v>
+        <v>412489.8181900001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>188492.62339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>175884.67813</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>263203.927</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>36.7692</v>
+        <v>19.77974</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>34.6158</v>
@@ -2369,28 +2455,33 @@
         <v>4081.20183</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>5276.22687</v>
+        <v>5564.72839</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>8919.250689999999</v>
+        <v>12214.49325</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>5230.138099999999</v>
+        <v>14134.24628</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>6447.29025</v>
+        <v>17916.92224</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>26764.50496</v>
+        <v>23924.00747</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>22054.2629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>21073.78758</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>9421.735000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.7081900000000001</v>
@@ -2425,254 +2516,289 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1933.74819</v>
+        <v>2103.04259</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2857.68027</v>
+        <v>2217.76179</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2592.21315</v>
+        <v>2104.70714</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1433.16912</v>
+        <v>2220.08684</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5005.93145</v>
+        <v>4942.54308</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6185.861</v>
+        <v>5500.7609</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5405.05173</v>
+        <v>8395.9977</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5209.28636</v>
+        <v>6105.880889999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3248.1109</v>
+        <v>3095.74696</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6598.43925</v>
+        <v>6421.225459999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4848.85381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4765.70481</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8303.574000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>39080.9546</v>
+        <v>40686.03409</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>27979.4925</v>
+        <v>31457.37665</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>39004.80802</v>
+        <v>44036.67271</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>37606.6603</v>
+        <v>44923.94651000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>52345.54865999999</v>
+        <v>59005.18452</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>69023.37628</v>
+        <v>81831.60678</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>91748.80284</v>
+        <v>132917.95133</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>113920.59514</v>
+        <v>118818.92316</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>135992.66712</v>
+        <v>167482.39827</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>289076.8561499999</v>
+        <v>193912.90237</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>237398.73068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>167237.46064</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>163116.364</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>37234.39062</v>
+        <v>37956.10241000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>24985.24781</v>
+        <v>27287.57363</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>35048.88454</v>
+        <v>37236.04354999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>36906.01622999999</v>
+        <v>41510.26379</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>47352.75983</v>
+        <v>53739.32497</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>67052.42139999999</v>
+        <v>80269.35209</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>88164.07352999999</v>
+        <v>130060.27337</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>110072.6632</v>
+        <v>114962.06715</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>132937.36571</v>
+        <v>164542.53107</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>285401.82423</v>
+        <v>190933.01202</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>227490.27997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>159843.63882</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>157672.474</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1846.56398</v>
+        <v>2729.93168</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2994.24469</v>
+        <v>4169.80302</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3955.92348</v>
+        <v>6800.62916</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>700.6440700000001</v>
+        <v>3413.68272</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4992.78883</v>
+        <v>5265.85955</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1970.95488</v>
+        <v>1562.25469</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3584.72931</v>
+        <v>2857.67796</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3847.93194</v>
+        <v>3856.85601</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3055.30141</v>
+        <v>2939.8672</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3675.03192</v>
+        <v>2979.89035</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>9908.450709999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>7393.821819999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5443.89</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>38787.45951</v>
+        <v>47100.49286</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>67548.35421</v>
+        <v>62381.43175</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>91423.36575999999</v>
+        <v>85261.00706999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>86495.33652000001</v>
+        <v>84709.07497</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>72991.02284000001</v>
+        <v>86433.76905</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>83008.10217</v>
+        <v>94980.19131000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>106147.43015</v>
+        <v>88305.98185000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>133996.26271</v>
+        <v>150052.6811</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>165046.86787</v>
+        <v>163418.5075</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>99053.49249999999</v>
+        <v>125904.69509</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>225722.94735</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>270653.7112200001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>392022.046</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12386.00765</v>
+        <v>10154.62938</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>11736.96806</v>
+        <v>12732.12588</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8034.96341</v>
+        <v>8103.597769999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10906.67316</v>
+        <v>13224.70256</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>19099.75543</v>
+        <v>16925.35972</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>15235.89955</v>
+        <v>36466.32193999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>27860.66445</v>
+        <v>26441.9829</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>39980.00599000001</v>
+        <v>29318.44338</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>51362.55658</v>
+        <v>40591.52604</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>49948.1944</v>
+        <v>35961.0422</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>50535.72745999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>39640.36462</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>38982.491</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3.9778</v>
+        <v>3.36259</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>208.37935</v>
+        <v>244.23784</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>274.25186</v>
+        <v>273.35773</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>5.66361</v>
@@ -2681,337 +2807,380 @@
         <v>161.62823</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>37.66626</v>
+        <v>14.97633</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>130.78066</v>
+        <v>98.06923999999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>274.74555</v>
+        <v>256.18433</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>75.49782</v>
+        <v>75.69292</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>685.67578</v>
+        <v>668.7572700000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>265.92967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>309.43304</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>216.532</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>12382.02985</v>
+        <v>10151.26679</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>11528.58871</v>
+        <v>12487.88804</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7760.71155</v>
+        <v>7830.24004</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10901.00955</v>
+        <v>13219.03895</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>18938.1272</v>
+        <v>16763.73149</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15198.23329</v>
+        <v>36451.34561</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>27729.88379</v>
+        <v>26343.91366</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>39705.26044</v>
+        <v>29062.25905</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>51287.05876000001</v>
+        <v>40515.83312</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>49262.51862</v>
+        <v>35292.28493</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>50269.79779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>39330.93158</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>38765.959</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6519.06459</v>
+        <v>6039.96824</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8323.99237</v>
+        <v>6960.52892</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>59631.11115</v>
+        <v>58068.9552</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10230.80088</v>
+        <v>6423.90709</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10010.32379</v>
+        <v>6909.38457</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>42632.42327</v>
+        <v>49508.65408</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23974.96777</v>
+        <v>21469.00474</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>76416.8012</v>
+        <v>64300.73929999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>28216.46798</v>
+        <v>22550.30973</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>150323.81524</v>
+        <v>79499.99215999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>39789.63699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>42612.8318</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>29044.345</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1092.93591</v>
+        <v>582.8607099999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>376.78211</v>
+        <v>196.54889</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>545.1290700000001</v>
+        <v>528.85932</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>394.87472</v>
+        <v>191.38811</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>736.7519</v>
+        <v>580.2621599999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1290.4685</v>
+        <v>1585.70518</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3635.14127</v>
+        <v>3753.07301</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2077.5466</v>
+        <v>404.0498</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1989.91715</v>
+        <v>1500.53683</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3983.95693</v>
+        <v>6375.21504</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3106.36635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>11628.34837</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1407.354</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>438.74011</v>
+        <v>582.25298</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>397.07041</v>
+        <v>373.1308</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2258.46488</v>
+        <v>2279.27924</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>762.75477</v>
+        <v>768.5064599999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>433.12941</v>
+        <v>265.43194</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>127.23081</v>
+        <v>167.94613</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>396.59412</v>
+        <v>655.8309399999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5590.02942</v>
+        <v>639.88085</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>495.2344000000001</v>
+        <v>542.11985</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1517.94656</v>
+        <v>1165.55107</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>664.1783300000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>505.67873</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2515.668</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4987.38857</v>
+        <v>4874.85455</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7550.13985</v>
+        <v>6390.849230000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>56827.5172</v>
+        <v>55260.81664</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9073.171390000001</v>
+        <v>5464.012519999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8840.44248</v>
+        <v>6063.69047</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41214.72396</v>
+        <v>47755.00277</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19943.23238</v>
+        <v>17060.10079</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>68749.22518000001</v>
+        <v>63256.80865</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>25731.31643</v>
+        <v>20507.65305</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>144821.91175</v>
+        <v>71959.22605000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>36019.09231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>30478.8047</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>25121.323</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>44654.40257</v>
+        <v>51215.154</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>70961.32990000001</v>
+        <v>68153.02871</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>39827.21802</v>
+        <v>35295.64964</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>87171.20879999999</v>
+        <v>91509.87044</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>82080.45447999999</v>
+        <v>96449.74419999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>55611.57844999999</v>
+        <v>81937.85917</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>110033.12683</v>
+        <v>93278.96001000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>97559.4675</v>
+        <v>115070.38518</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>188192.95647</v>
+        <v>181459.72381</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1322.12834</v>
+        <v>82365.74513</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>236469.03782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>267681.24404</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>401960.192</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8192.640579999999</v>
+        <v>8779.740039999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12277.22782</v>
+        <v>12029.20675</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>14554.60409</v>
+        <v>14171.96667</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16282.11553</v>
+        <v>16123.07164</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16877.61156</v>
+        <v>17325.50049</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>18595.08436</v>
+        <v>20546.50298</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>26057.19294</v>
+        <v>25630.24547</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>28075.79824</v>
+        <v>29189.02881</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>30756.30062</v>
+        <v>31509.38777</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>38340.46369</v>
+        <v>33604.76901</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>51875.5766</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>55975.04427</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>76530.26700000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>36461.76199</v>
+        <v>42435.41396</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>58684.10208</v>
+        <v>56123.82195999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>25272.61393</v>
+        <v>21123.68297</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>70889.09327000001</v>
+        <v>75386.7988</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>65202.84292</v>
+        <v>79124.24371000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>37016.49409</v>
+        <v>61391.35619</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>83975.93389</v>
+        <v>67648.71453999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>69483.66926000001</v>
+        <v>85881.35637000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>157436.65585</v>
+        <v>149950.33604</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-39662.59202999999</v>
+        <v>48760.97612</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>184593.46122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>211706.19977</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>325429.925</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>213</v>
+      </c>
+      <c r="H59" s="35" t="n">
         <v>250</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>293</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>